--- a/biology/Zoologie/Avocette_d'Amérique/Avocette_d'Amérique.xlsx
+++ b/biology/Zoologie/Avocette_d'Amérique/Avocette_d'Amérique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Avocette_d%27Am%C3%A9rique</t>
+          <t>Avocette_d'Amérique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Recurvirostra americana
 L'Avocette d'Amérique (Recurvirostra americana) est une espèce d'oiseaux limicoles néarctiques de la famille des Recurvirostridae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Avocette_d%27Am%C3%A9rique</t>
+          <t>Avocette_d'Amérique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle mesure 40 à 50 cm. La tête et le cou sont rouille orangé, plus pâles en hiver. Les ailes sont noires et blanches, cette dernière couleur étant présente sur le reste du corps. Le bec noir est fortement retroussé et les pattes sont bleues.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Avocette_d%27Am%C3%A9rique</t>
+          <t>Avocette_d'Amérique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Avocette d'Amérique se reproduit surtout en bordure des lacs alcalins à végétation éparse mais niche également autour des lacs salés et au voisinage des estuaires.
 </t>
